--- a/exports/20022023_9-58-06WT.xlsx
+++ b/exports/20022023_9-58-06WT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.gallinelli\Documents\Progetti\WTExcel\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A74E0-2D55-4ACB-A719-FFC1ABD5DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A41D8B0-8D43-46CD-9398-D82A01776531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="137">
   <si>
     <t>p</t>
   </si>
@@ -430,15 +430,26 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -465,8 +476,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -806,1776 +820,1786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="62.125" customWidth="1"/>
+    <col min="2" max="2" width="109.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
       <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
       <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
         <v>40</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>30</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
       <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
         <v>42</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:R7" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="10.875" customWidth="1"/>
+    <col min="2" max="17" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>63</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>82</v>
       </c>
       <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
         <v>83</v>
       </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
       <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
         <v>84</v>
       </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
         <v>82</v>
       </c>
       <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s">
         <v>85</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>86</v>
       </c>
-      <c r="W2" t="s">
-        <v>87</v>
-      </c>
       <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="Z2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>90</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>84</v>
       </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
       <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
         <v>92</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>90</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>85</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>86</v>
       </c>
-      <c r="W3" t="s">
-        <v>87</v>
-      </c>
       <c r="X3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" t="s">
-        <v>87</v>
-      </c>
       <c r="Z3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>92</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>94</v>
       </c>
       <c r="AE3" t="s">
         <v>94</v>
       </c>
       <c r="AF3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG3" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
         <v>84</v>
       </c>
-      <c r="R4" t="s">
-        <v>21</v>
-      </c>
       <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
         <v>99</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>100</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>85</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>86</v>
       </c>
-      <c r="W4" t="s">
-        <v>87</v>
-      </c>
       <c r="X4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" t="s">
-        <v>87</v>
-      </c>
       <c r="Z4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA4" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>92</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>94</v>
       </c>
       <c r="AE4" t="s">
         <v>94</v>
       </c>
       <c r="AF4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG4" t="s">
         <v>95</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>96</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
       <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
         <v>84</v>
       </c>
-      <c r="R5" t="s">
-        <v>21</v>
-      </c>
       <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
         <v>99</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>100</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>85</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>86</v>
       </c>
-      <c r="W5" t="s">
-        <v>87</v>
-      </c>
       <c r="X5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" t="s">
-        <v>87</v>
-      </c>
       <c r="Z5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA5" t="s">
         <v>92</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>92</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>94</v>
       </c>
       <c r="AE5" t="s">
         <v>94</v>
       </c>
       <c r="AF5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG5" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>96</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" t="s">
-        <v>21</v>
-      </c>
       <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
         <v>84</v>
       </c>
-      <c r="R6" t="s">
-        <v>21</v>
-      </c>
       <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
         <v>99</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>100</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>85</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>86</v>
       </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
       <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
         <v>88</v>
       </c>
-      <c r="Y6" t="s">
-        <v>87</v>
-      </c>
       <c r="Z6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA6" t="s">
         <v>92</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>92</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>94</v>
       </c>
       <c r="AE6" t="s">
         <v>94</v>
       </c>
       <c r="AF6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG6" t="s">
         <v>95</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>96</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>105</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
         <v>84</v>
       </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
       <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
         <v>99</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>100</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>85</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>86</v>
       </c>
-      <c r="W7" t="s">
-        <v>87</v>
-      </c>
       <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
         <v>88</v>
       </c>
-      <c r="Y7" t="s">
-        <v>87</v>
-      </c>
       <c r="Z7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA7" t="s">
         <v>92</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>92</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>94</v>
       </c>
       <c r="AE7" t="s">
         <v>94</v>
       </c>
       <c r="AF7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s">
         <v>95</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>96</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
       <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
         <v>84</v>
       </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
       <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
         <v>99</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>100</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>85</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>86</v>
       </c>
-      <c r="W8" t="s">
-        <v>87</v>
-      </c>
       <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
         <v>88</v>
       </c>
-      <c r="Y8" t="s">
-        <v>87</v>
-      </c>
       <c r="Z8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" t="s">
         <v>92</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>92</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>94</v>
       </c>
       <c r="AE8" t="s">
         <v>94</v>
       </c>
       <c r="AF8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG8" t="s">
         <v>95</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>96</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
         <v>90</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>84</v>
       </c>
-      <c r="R9" t="s">
-        <v>21</v>
-      </c>
       <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
         <v>92</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>90</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>85</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>86</v>
       </c>
-      <c r="W9" t="s">
-        <v>87</v>
-      </c>
       <c r="X9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
         <v>88</v>
       </c>
-      <c r="Y9" t="s">
-        <v>87</v>
-      </c>
       <c r="Z9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA9" t="s">
         <v>92</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>90</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>108</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>92</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>109</v>
       </c>
       <c r="AE9" t="s">
         <v>109</v>
       </c>
       <c r="AF9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG9" t="s">
         <v>110</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>111</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
       <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
         <v>84</v>
       </c>
-      <c r="R10" t="s">
-        <v>21</v>
-      </c>
       <c r="S10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" t="s">
         <v>99</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>100</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>85</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>86</v>
       </c>
-      <c r="W10" t="s">
-        <v>87</v>
-      </c>
       <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
         <v>88</v>
       </c>
-      <c r="Y10" t="s">
-        <v>87</v>
-      </c>
       <c r="Z10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" t="s">
         <v>92</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>92</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>109</v>
       </c>
       <c r="AE10" t="s">
         <v>109</v>
       </c>
       <c r="AF10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG10" t="s">
         <v>110</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>111</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>115</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
         <v>82</v>
       </c>
       <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
         <v>83</v>
       </c>
-      <c r="P11" t="s">
-        <v>21</v>
-      </c>
       <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
         <v>84</v>
       </c>
-      <c r="R11" t="s">
-        <v>21</v>
-      </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="T11" t="s">
         <v>82</v>
       </c>
       <c r="U11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" t="s">
         <v>85</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>86</v>
       </c>
-      <c r="W11" t="s">
-        <v>87</v>
-      </c>
       <c r="X11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" t="s">
         <v>88</v>
       </c>
-      <c r="Y11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="Z11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>81</v>
       </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
         <v>90</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>84</v>
       </c>
-      <c r="R12" t="s">
-        <v>21</v>
-      </c>
       <c r="S12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" t="s">
         <v>92</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>90</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>85</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>86</v>
       </c>
-      <c r="W12" t="s">
-        <v>87</v>
-      </c>
       <c r="X12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
         <v>88</v>
       </c>
-      <c r="Y12" t="s">
-        <v>87</v>
-      </c>
       <c r="Z12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" t="s">
         <v>92</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>90</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>92</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>94</v>
       </c>
       <c r="AE12" t="s">
         <v>94</v>
       </c>
       <c r="AF12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG12" t="s">
         <v>95</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>96</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>117</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="P13" t="s">
-        <v>21</v>
-      </c>
       <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" t="s">
         <v>84</v>
       </c>
-      <c r="R13" t="s">
-        <v>21</v>
-      </c>
       <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
         <v>99</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>100</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>85</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>86</v>
       </c>
-      <c r="W13" t="s">
-        <v>87</v>
-      </c>
       <c r="X13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13" t="s">
         <v>88</v>
       </c>
-      <c r="Y13" t="s">
-        <v>87</v>
-      </c>
       <c r="Z13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" t="s">
         <v>92</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>92</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>94</v>
       </c>
       <c r="AE13" t="s">
         <v>94</v>
       </c>
       <c r="AF13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG13" t="s">
         <v>95</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>96</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
         <v>82</v>
       </c>
       <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" t="s">
-        <v>21</v>
-      </c>
       <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" t="s">
         <v>84</v>
       </c>
-      <c r="R14" t="s">
-        <v>21</v>
-      </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="T14" t="s">
         <v>82</v>
       </c>
       <c r="U14" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" t="s">
         <v>85</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>86</v>
       </c>
-      <c r="W14" t="s">
-        <v>87</v>
-      </c>
       <c r="X14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y14" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="Z14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>119</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>20</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>81</v>
       </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
         <v>90</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>120</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>84</v>
       </c>
-      <c r="R15" t="s">
-        <v>21</v>
-      </c>
       <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
         <v>28</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>90</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>85</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>86</v>
       </c>
-      <c r="W15" t="s">
-        <v>87</v>
-      </c>
       <c r="X15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" t="s">
         <v>88</v>
       </c>
-      <c r="Y15" t="s">
-        <v>87</v>
-      </c>
       <c r="Z15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA15" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>90</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>28</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>122</v>
       </c>
       <c r="AE15" t="s">
         <v>122</v>
       </c>
       <c r="AF15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG15" t="s">
         <v>123</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>124</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="P16" t="s">
-        <v>21</v>
-      </c>
       <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" t="s">
         <v>84</v>
       </c>
-      <c r="R16" t="s">
-        <v>21</v>
-      </c>
       <c r="S16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" t="s">
         <v>99</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>127</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>85</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>86</v>
       </c>
-      <c r="W16" t="s">
-        <v>87</v>
-      </c>
       <c r="X16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y16" t="s">
         <v>88</v>
       </c>
-      <c r="Y16" t="s">
-        <v>87</v>
-      </c>
       <c r="Z16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA16" t="s">
         <v>28</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>28</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>122</v>
       </c>
       <c r="AE16" t="s">
         <v>122</v>
       </c>
       <c r="AF16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG16" t="s">
         <v>123</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>124</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="P17" t="s">
-        <v>21</v>
-      </c>
       <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
         <v>84</v>
       </c>
-      <c r="R17" t="s">
-        <v>21</v>
-      </c>
       <c r="S17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" t="s">
         <v>99</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>127</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>86</v>
       </c>
-      <c r="W17" t="s">
-        <v>87</v>
-      </c>
       <c r="X17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y17" t="s">
         <v>88</v>
       </c>
-      <c r="Y17" t="s">
-        <v>87</v>
-      </c>
       <c r="Z17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA17" t="s">
         <v>28</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>28</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>122</v>
       </c>
       <c r="AE17" t="s">
         <v>122</v>
       </c>
       <c r="AF17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG17" t="s">
         <v>123</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>124</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="P18" t="s">
-        <v>21</v>
-      </c>
       <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" t="s">
         <v>84</v>
       </c>
-      <c r="R18" t="s">
-        <v>21</v>
-      </c>
       <c r="S18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
         <v>99</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>127</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>85</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>86</v>
       </c>
-      <c r="W18" t="s">
-        <v>87</v>
-      </c>
       <c r="X18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" t="s">
         <v>88</v>
       </c>
-      <c r="Y18" t="s">
-        <v>87</v>
-      </c>
       <c r="Z18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA18" t="s">
         <v>28</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>28</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>122</v>
       </c>
       <c r="AE18" t="s">
         <v>122</v>
       </c>
       <c r="AF18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG18" t="s">
         <v>123</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>124</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>131</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>20</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
         <v>82</v>
       </c>
       <c r="O19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" t="s">
         <v>83</v>
       </c>
-      <c r="P19" t="s">
-        <v>21</v>
-      </c>
       <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" t="s">
         <v>84</v>
       </c>
-      <c r="R19" t="s">
-        <v>21</v>
-      </c>
       <c r="S19" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="T19" t="s">
         <v>82</v>
       </c>
       <c r="U19" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" t="s">
         <v>85</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>86</v>
       </c>
-      <c r="W19" t="s">
-        <v>87</v>
-      </c>
       <c r="X19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y19" t="s">
         <v>88</v>
       </c>
-      <c r="Y19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="Z19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>132</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="L20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
         <v>133</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>27</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>22</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>84</v>
       </c>
-      <c r="R20" t="s">
-        <v>21</v>
-      </c>
       <c r="S20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" t="s">
         <v>28</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>133</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>85</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>86</v>
       </c>
-      <c r="W20" t="s">
-        <v>87</v>
-      </c>
       <c r="X20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y20" t="s">
         <v>88</v>
       </c>
-      <c r="Y20" t="s">
-        <v>87</v>
-      </c>
       <c r="Z20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>134</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>28</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>23</v>
       </c>
       <c r="AE20" t="s">
         <v>23</v>
       </c>
       <c r="AF20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="s">
         <v>26</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>27</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AI20" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:AJ20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2586,14 +2610,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="10.875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>